--- a/doc/api.xlsx
+++ b/doc/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6947" windowHeight="9192"/>
+    <workbookView windowWidth="7860" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>{ field: [[INTEGER, INTEGER, ...], [...], ...] }</t>
   </si>
   <si>
-    <t>{ lines: [[INTEGER, INTEGER, ...], [...], ...], columns: [...] }</t>
-  </si>
-  <si>
-    <t>{ tasks: [{ taskid: INTEGER, solved: BOOLEAN, size: {lines: INTEGER, columns: INTEGER } }, {...}, ...] }</t>
-  </si>
-  <si>
-    <t>{ taskid: INTEGER, solved: BOOLEAN, size: {lines: INTEGER, columns: INTEGER }, hints: hints }</t>
+    <t>{ rows: [[INTEGER, INTEGER, ...], [...], ...], columns: [...] }</t>
+  </si>
+  <si>
+    <t>{ tasks: [{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER } }, {...}, ...] }</t>
+  </si>
+  <si>
+    <t>{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER }, hints: hints }</t>
   </si>
   <si>
     <t>BOOLEAN</t>
@@ -102,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -116,6 +116,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,6 +133,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -131,15 +154,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,23 +170,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,15 +185,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,7 +223,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -233,21 +231,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,43 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,139 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +463,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,18 +478,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +518,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,16 +541,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,18 +565,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,127 +586,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/doc/api.xlsx
+++ b/doc/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7860" windowHeight="9192"/>
+    <workbookView windowWidth="18468" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Request</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Params</t>
+    <t>Query params</t>
   </si>
   <si>
     <t>Body</t>
@@ -34,64 +34,79 @@
     <t>task/new</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>task/list</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
-    <t>userid</t>
+    <t>TASK_LIST</t>
+  </si>
+  <si>
+    <t>task/{taskid}</t>
+  </si>
+  <si>
+    <t>task/check/{taskid}</t>
+  </si>
+  <si>
+    <t>CELLS</t>
+  </si>
+  <si>
+    <t>CORRECTNESS</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>taskid</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>{ field: [[INTEGER, INTEGER, ...], [...], ...] }</t>
+  </si>
+  <si>
+    <t>solved</t>
   </si>
   <si>
     <t>hints</t>
   </si>
   <si>
-    <t>task/list</t>
+    <t>{ rows: [[INTEGER, INTEGER, ...], [...], ...], columns: [...] }</t>
   </si>
   <si>
     <t>task list</t>
   </si>
   <si>
-    <t>task/info/{taskid}</t>
+    <t>{ tasks: [{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER } }, {...}, ...] }</t>
   </si>
   <si>
     <t>task info</t>
   </si>
   <si>
-    <t>task/check/{taskid}</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>field</t>
+    <t>{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER }, hints: hints }</t>
   </si>
   <si>
     <t>correctness</t>
-  </si>
-  <si>
-    <t>Param</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>taskid</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>{ field: [[INTEGER, INTEGER, ...], [...], ...] }</t>
-  </si>
-  <si>
-    <t>{ rows: [[INTEGER, INTEGER, ...], [...], ...], columns: [...] }</t>
-  </si>
-  <si>
-    <t>{ tasks: [{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER } }, {...}, ...] }</t>
-  </si>
-  <si>
-    <t>{ taskid: INTEGER, solved: BOOLEAN, size: {rows: INTEGER, columns: INTEGER }, hints: hints }</t>
   </si>
   <si>
     <t>BOOLEAN</t>
@@ -102,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +131,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -124,6 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,24 +168,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +230,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -168,93 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,121 +284,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,49 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,24 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,21 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +523,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,153 +566,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" customWidth="1"/>
   </cols>
@@ -1083,27 +1098,27 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1111,27 +1126,27 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1139,95 +1154,136 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="12" spans="4:12">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="9:16">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="12:16">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="9:16">
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="12:16">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12">
+      <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="L15:P16"/>
+    <mergeCell ref="L13:P14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
